--- a/REQUISITOS/Requistos02.2.xlsx
+++ b/REQUISITOS/Requistos02.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\pesquisa_inovacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\pesquisa_inovacao\REQUISITOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -516,100 +516,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,7 +905,7 @@
   <dimension ref="A2:F31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D26" sqref="D25:D26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,14 +1459,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
@@ -1480,92 +1480,92 @@
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="26">
-        <v>43710</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="29">
+        <v>43710</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="31"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="31"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="31"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="31"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="34"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="31"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -1574,68 +1574,68 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="26">
-        <v>43710</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="29">
+        <v>43710</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="31"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="31"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="31"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -1644,40 +1644,40 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="26">
-        <v>43710</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="E21" s="29">
+        <v>43710</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="43" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="31"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="20"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="32"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -1686,37 +1686,37 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="29">
-        <v>43710</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="E25" s="17">
+        <v>43710</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="29">
-        <v>43710</v>
-      </c>
-      <c r="F26" s="21" t="s">
+      <c r="E26" s="17">
+        <v>43710</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1727,22 +1727,22 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="29">
-        <v>43710</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="17">
+        <v>43710</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1753,27 +1753,27 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="29">
-        <v>43710</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="E30" s="17">
+        <v>43710</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I35" s="48"/>
+      <c r="I35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
